--- a/BrandscapeExcel/SuperAdmin.xlsx
+++ b/BrandscapeExcel/SuperAdmin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" firstSheet="10" activeTab="15"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SuperAdmin Login" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
   <si>
     <t>Sl.No</t>
   </si>
@@ -52,13 +52,16 @@
     <t>Admin Email ID</t>
   </si>
   <si>
-    <t>GOT</t>
+    <t>Azure az</t>
+  </si>
+  <si>
+    <t>azureaz@yopmail.com</t>
+  </si>
+  <si>
+    <t>Admin Email</t>
   </si>
   <si>
     <t>demobrand0109@yopmail.com</t>
-  </si>
-  <si>
-    <t>Admin Email</t>
   </si>
   <si>
     <t>Edit Value</t>
@@ -174,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -213,28 +216,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -250,9 +231,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,10 +274,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,38 +300,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,19 +358,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,163 +526,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,21 +549,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -575,24 +563,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,7 +586,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,6 +608,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -649,152 +652,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,6 +813,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1192,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1203,10 +1207,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1245,31 +1249,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1277,86 +1281,86 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="10:10">
       <c r="J3" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="10:10">
       <c r="J4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="10:10">
       <c r="J5" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="10:10">
       <c r="J6" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="10:10">
       <c r="J7" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="10:10">
       <c r="J8" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="10:10">
       <c r="J9" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="10:10">
       <c r="J11" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="10:10">
       <c r="J12" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1395,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1427,136 +1431,136 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="5:9">
       <c r="E3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="5:9">
       <c r="E4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="5:9">
       <c r="E5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="5:9">
       <c r="E6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="5:9">
       <c r="E7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="5:9">
       <c r="E8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="5:9">
       <c r="E9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="5:9">
       <c r="E10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="5:9">
       <c r="E11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="5:9">
       <c r="E12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="5:9">
       <c r="E13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="6"/>
     </row>
@@ -1588,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1596,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1632,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1646,7 +1650,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1664,7 +1668,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1672,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1689,7 +1693,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1718,14 +1722,14 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="GOT" tooltip="mailto:superadmin@yopmail.com"/>
-    <hyperlink ref="C2" r:id="rId2" display="demobrand0109@yopmail.com" tooltip="mailto:demobrand0109@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="Azure az" tooltip="mailto:superadmin@yopmail.com"/>
+    <hyperlink ref="C2" r:id="rId2" display="azureaz@yopmail.com" tooltip="mailto:azureaz@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1760,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +1799,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1803,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1877,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -1888,10 +1892,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1961,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1969,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2008,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/BrandscapeExcel/SuperAdmin.xlsx
+++ b/BrandscapeExcel/SuperAdmin.xlsx
@@ -4,32 +4,33 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="SuperAdmin Login" sheetId="2" r:id="rId1"/>
-    <sheet name="Add Admin" sheetId="1" r:id="rId2"/>
-    <sheet name="View Admin" sheetId="3" r:id="rId3"/>
-    <sheet name="Edit Admin" sheetId="4" r:id="rId4"/>
-    <sheet name="Search Admin" sheetId="5" r:id="rId5"/>
-    <sheet name="Filter Admin" sheetId="6" r:id="rId6"/>
-    <sheet name="Delete Admin" sheetId="7" r:id="rId7"/>
-    <sheet name="View User" sheetId="8" r:id="rId8"/>
-    <sheet name="Search User" sheetId="9" r:id="rId9"/>
-    <sheet name="Filter user" sheetId="10" r:id="rId10"/>
-    <sheet name="Add Project" sheetId="14" r:id="rId11"/>
-    <sheet name="View Project" sheetId="11" r:id="rId12"/>
-    <sheet name="Edit Project" sheetId="16" r:id="rId13"/>
-    <sheet name="Search Project" sheetId="12" r:id="rId14"/>
-    <sheet name="Filter Project" sheetId="13" r:id="rId15"/>
-    <sheet name="Message" sheetId="15" r:id="rId16"/>
+    <sheet name="Search Admin (2)" sheetId="17" r:id="rId2"/>
+    <sheet name="Add Admin" sheetId="1" r:id="rId3"/>
+    <sheet name="View Admin" sheetId="3" r:id="rId4"/>
+    <sheet name="Edit Admin" sheetId="4" r:id="rId5"/>
+    <sheet name="Search Admin" sheetId="5" r:id="rId6"/>
+    <sheet name="Filter Admin" sheetId="6" r:id="rId7"/>
+    <sheet name="Delete Admin" sheetId="7" r:id="rId8"/>
+    <sheet name="View User" sheetId="8" r:id="rId9"/>
+    <sheet name="Search User" sheetId="9" r:id="rId10"/>
+    <sheet name="Filter user" sheetId="10" r:id="rId11"/>
+    <sheet name="Add Project" sheetId="14" r:id="rId12"/>
+    <sheet name="View Project" sheetId="11" r:id="rId13"/>
+    <sheet name="Edit Project" sheetId="16" r:id="rId14"/>
+    <sheet name="Search Project" sheetId="12" r:id="rId15"/>
+    <sheet name="Filter Project" sheetId="13" r:id="rId16"/>
+    <sheet name="Message" sheetId="15" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
   <si>
     <t>Sl.No</t>
   </si>
@@ -46,127 +47,133 @@
     <t>superadmin</t>
   </si>
   <si>
+    <t>Admin Email</t>
+  </si>
+  <si>
+    <t>demobrand0109@yopmail.com</t>
+  </si>
+  <si>
     <t>Admin Name</t>
   </si>
   <si>
     <t>Admin Email ID</t>
   </si>
   <si>
-    <t>Azure az</t>
-  </si>
-  <si>
-    <t>azureaz@yopmail.com</t>
-  </si>
-  <si>
-    <t>Admin Email</t>
-  </si>
-  <si>
-    <t>demobrand0109@yopmail.com</t>
+    <t>Azure azzz</t>
+  </si>
+  <si>
+    <t>azureaz123@yopmail.com</t>
   </si>
   <si>
     <t>Edit Value</t>
   </si>
   <si>
+    <t xml:space="preserve">Game Of </t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>NOTSTARTED</t>
+  </si>
+  <si>
+    <t>User Email</t>
+  </si>
+  <si>
+    <t>automate001@yopmail.com</t>
+  </si>
+  <si>
+    <t>demobrand0107@yopmail.com</t>
+  </si>
+  <si>
+    <t>Group Name</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Project Banner</t>
+  </si>
+  <si>
+    <t>Client Company Name</t>
+  </si>
+  <si>
+    <t>Admin Mail</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>No Of Participants</t>
+  </si>
+  <si>
+    <t>Type Of Study</t>
+  </si>
+  <si>
+    <t>ProjectStatus</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Work Account\\Downloads\\project-management.jpg</t>
+  </si>
+  <si>
+    <t>7 Kingdoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stark  stark </t>
+  </si>
+  <si>
+    <t>GOAT</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Name</t>
+  </si>
+  <si>
+    <t>Edit Project Name</t>
+  </si>
+  <si>
+    <t>Automation dd</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Automationvdd</t>
+  </si>
+  <si>
+    <t>Project Status</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
     <t>Game Of Thrones</t>
-  </si>
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>NOTSTARTED</t>
-  </si>
-  <si>
-    <t>automate001@yopmail.com</t>
-  </si>
-  <si>
-    <t>User Email</t>
-  </si>
-  <si>
-    <t>demobrand0107@yopmail.com</t>
-  </si>
-  <si>
-    <t>Group Name</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>Project Banner</t>
-  </si>
-  <si>
-    <t>Client Company Name</t>
-  </si>
-  <si>
-    <t>Admin Mail</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>No Of Participants</t>
-  </si>
-  <si>
-    <t>Type Of Study</t>
-  </si>
-  <si>
-    <t>ProjectStatus</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Work Account\\Downloads\\project-management.jpg</t>
-  </si>
-  <si>
-    <t>7 Kingdoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stark </t>
-  </si>
-  <si>
-    <t>GOAT</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Combo</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Name</t>
-  </si>
-  <si>
-    <t>Edit Project Name</t>
-  </si>
-  <si>
-    <t>demobrand0106@yopmail.com</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>Project Status</t>
-  </si>
-  <si>
-    <t>Message</t>
   </si>
   <si>
     <t>One of the best series ever</t>
@@ -177,9 +184,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -216,15 +223,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,14 +237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,19 +266,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,7 +299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,7 +314,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,7 +336,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,31 +365,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,145 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,21 +556,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -615,15 +607,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -635,6 +618,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,7 +659,10 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,9 +671,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,131 +680,131 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -809,11 +816,8 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1179,6 +1183,45 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="34.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="demobrand0107@yopmail.com" tooltip="mailto:demobrand0107@yopmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1199,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1222,13 +1265,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
@@ -1289,7 +1332,7 @@
       <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1365,14 +1408,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="demobrand0109@yopmail.com" tooltip="mailto:demobrand0109@yopmail.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="azureaz123@yopmail.com" tooltip="mailto:azureaz123@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
@@ -1408,20 +1451,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.552380952381" customWidth="1"/>
     <col min="2" max="2" width="26.7809523809524" customWidth="1"/>
-    <col min="3" max="3" width="28.447619047619" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="33.552380952381" customWidth="1"/>
     <col min="5" max="5" width="22.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="20.7809523809524" customWidth="1"/>
@@ -1460,13 +1503,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>43</v>
@@ -1484,7 +1527,7 @@
         <v>34</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="5:9">
@@ -1566,14 +1609,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="demobrand0106@yopmail.com" tooltip="mailto:demobrand0106@yopmail.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="azureaz123@yopmail.com" tooltip="mailto:azureaz123@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
@@ -1609,12 +1652,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1628,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1645,7 +1688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
@@ -1665,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1676,10 +1719,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1691,10 +1734,49 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="46.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="demobrand0109@yopmail.com" tooltip="mailto:demobrand0109@yopmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1709,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1720,23 +1802,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Azure az" tooltip="mailto:superadmin@yopmail.com"/>
-    <hyperlink ref="C2" r:id="rId2" display="azureaz@yopmail.com" tooltip="mailto:azureaz@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="Azure azzz" tooltip="mailto:superadmin@yopmail.com"/>
+    <hyperlink ref="C2" r:id="rId2" display="azureaz123@yopmail.com" tooltip="mailto:azureaz123@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
@@ -1756,27 +1838,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="demobrand0109@yopmail.com" tooltip="mailto:demobrand0109@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="azureaz123@yopmail.com" tooltip="mailto:azureaz123@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
@@ -1796,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -1806,7 +1888,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
@@ -1815,14 +1897,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="demobrand0109@yopmail.com" tooltip="mailto:demobrand0109@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="azureaz123@yopmail.com" tooltip="mailto:azureaz123@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
@@ -1841,33 +1923,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="demobrand0109@yopmail.com" tooltip="mailto:demobrand0109@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="azureaz123@yopmail.com" tooltip="mailto:azureaz123@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1884,7 +1966,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1894,52 +1976,13 @@
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="demobrand0109@yopmail.com" tooltip="mailto:demobrand0109@yopmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="automate001@yopmail.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="azureaz123@yopmail.com" tooltip="mailto:azureaz123@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1952,12 +1995,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="27.8857142857143" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1965,20 +2008,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="automate001@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="azureaz123@yopmail.com" tooltip="mailto:azureaz123@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1991,12 +2034,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="34.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="27.8857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2004,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2012,12 +2055,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="demobrand0107@yopmail.com" tooltip="mailto:demobrand0107@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="automate001@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
